--- a/micro.xlsx
+++ b/micro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaelyn\Documents\University\University 2020-2021\thesis\MicrobiomeThesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/ahalhed_uoguelph_ca/Documents/Lab stuff/Kaelyn/MicrobiomeThesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D127BF64-CFA7-4C5A-BF68-CA68043BADB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{D127BF64-CFA7-4C5A-BF68-CA68043BADB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87519FB5-D65B-1C4F-A173-EF45AC128D4F}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="5085" windowWidth="15060" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="22220" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thesis" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="447">
   <si>
     <t>authors</t>
   </si>
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>alpha diversity, shannon index, 16S rRNA sequencing</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
   </si>
   <si>
     <t xml:space="preserve">Abundant phyla (Proteobacteria,
@@ -1686,31 +1683,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="11" width="26.875" customWidth="1"/>
-    <col min="12" max="12" width="28.875" customWidth="1"/>
-    <col min="13" max="13" width="41.75" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="11" width="26.83203125" customWidth="1"/>
+    <col min="12" max="12" width="28.83203125" customWidth="1"/>
+    <col min="13" max="13" width="41.6640625" customWidth="1"/>
     <col min="14" max="14" width="42" customWidth="1"/>
-    <col min="15" max="19" width="41.75" customWidth="1"/>
-    <col min="20" max="20" width="20.625" customWidth="1"/>
-    <col min="21" max="21" width="48.375" customWidth="1"/>
-    <col min="22" max="22" width="37.125" customWidth="1"/>
-    <col min="23" max="23" width="15.875" customWidth="1"/>
-    <col min="24" max="24" width="26.625" customWidth="1"/>
+    <col min="15" max="19" width="41.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" customWidth="1"/>
+    <col min="21" max="21" width="48.33203125" customWidth="1"/>
+    <col min="22" max="22" width="37.1640625" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" customWidth="1"/>
+    <col min="24" max="24" width="26.6640625" customWidth="1"/>
     <col min="25" max="25" width="34.5" customWidth="1"/>
-    <col min="26" max="26" width="26.875" customWidth="1"/>
-    <col min="27" max="27" width="27.375" customWidth="1"/>
-    <col min="28" max="28" width="30.625" customWidth="1"/>
-    <col min="29" max="35" width="7.625" customWidth="1"/>
+    <col min="26" max="26" width="26.83203125" customWidth="1"/>
+    <col min="27" max="27" width="27.33203125" customWidth="1"/>
+    <col min="28" max="28" width="30.6640625" customWidth="1"/>
+    <col min="29" max="35" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -2936,13 +2935,13 @@
         <v>154</v>
       </c>
       <c r="T17" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="U17" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="V17" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="W17" s="5" t="s">
         <v>120</v>
@@ -2951,13 +2950,13 @@
         <v>35</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="4"/>
@@ -2970,13 +2969,13 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>30</v>
@@ -2996,10 +2995,10 @@
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3011,13 +3010,13 @@
         <v>36</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="U18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>120</v>
@@ -3026,7 +3025,7 @@
         <v>35</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z18" s="5" t="s">
         <v>35</v>
@@ -3043,13 +3042,13 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>30</v>
@@ -3069,7 +3068,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>80</v>
@@ -3081,16 +3080,16 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="U19" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="T19" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="U19" s="5" t="s">
+      <c r="V19" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="W19" s="5" t="s">
         <v>120</v>
@@ -3116,13 +3115,13 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
@@ -3136,11 +3135,11 @@
         <v>32</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>48</v>
@@ -3152,13 +3151,13 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T20" s="5" t="s">
         <v>60</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>35</v>
@@ -3187,13 +3186,13 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="5" t="s">
@@ -3207,11 +3206,11 @@
         <v>32</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>48</v>
@@ -3223,16 +3222,16 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T21" s="5" t="s">
         <v>60</v>
       </c>
       <c r="U21" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="V21" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="W21" s="5" t="s">
         <v>120</v>
@@ -3258,13 +3257,13 @@
     </row>
     <row r="22" spans="1:35" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>109</v>
@@ -3284,10 +3283,10 @@
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3296,16 +3295,16 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="T22" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="U22" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="V22" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>120</v>
@@ -3314,10 +3313,10 @@
         <v>35</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA22" s="5"/>
       <c r="AC22" s="4"/>
@@ -3330,13 +3329,13 @@
     </row>
     <row r="23" spans="1:35" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>109</v>
@@ -3356,7 +3355,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>80</v>
@@ -3368,16 +3367,16 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="T23" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="U23" s="5" t="s">
+      <c r="V23" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="V23" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="W23" s="5" t="s">
         <v>120</v>
@@ -3386,7 +3385,7 @@
         <v>35</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z23" s="5" t="s">
         <v>35</v>
@@ -3402,13 +3401,13 @@
     </row>
     <row r="24" spans="1:35" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
@@ -3422,11 +3421,11 @@
         <v>46</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>48</v>
@@ -3438,16 +3437,16 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T24" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U24" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="V24" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="V24" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="W24" s="5" t="s">
         <v>120</v>
@@ -3473,13 +3472,13 @@
     </row>
     <row r="25" spans="1:35" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>30</v>
@@ -3499,10 +3498,10 @@
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3511,16 +3510,16 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T25" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U25" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="V25" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="V25" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>120</v>
@@ -3529,7 +3528,7 @@
         <v>51</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>51</v>
@@ -3545,13 +3544,13 @@
     </row>
     <row r="26" spans="1:35" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="5" t="s">
@@ -3565,14 +3564,14 @@
         <v>32</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="s">
         <v>58</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3581,16 +3580,16 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T26" s="5" t="s">
         <v>60</v>
       </c>
       <c r="U26" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="V26" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>120</v>
@@ -3616,13 +3615,13 @@
     </row>
     <row r="27" spans="1:35" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>30</v>
@@ -3640,7 +3639,7 @@
         <v>32</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
@@ -3656,16 +3655,16 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>60</v>
       </c>
       <c r="U27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="V27" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="V27" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="W27" s="5" t="s">
         <v>120</v>
@@ -3691,13 +3690,13 @@
     </row>
     <row r="28" spans="1:35" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>109</v>
@@ -3719,10 +3718,10 @@
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3731,16 +3730,16 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U28" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="T28" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="U28" s="5" t="s">
+      <c r="V28" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="W28" s="5" t="s">
         <v>120</v>
@@ -3766,13 +3765,13 @@
     </row>
     <row r="29" spans="1:35" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>109</v>
@@ -3790,14 +3789,14 @@
         <v>32</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3806,16 +3805,16 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U29" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="V29" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="W29" s="5" t="s">
         <v>40</v>
@@ -3841,13 +3840,13 @@
     </row>
     <row r="30" spans="1:35" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>109</v>
@@ -3869,10 +3868,10 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -3881,16 +3880,16 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U30" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="V30" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>120</v>
@@ -3905,7 +3904,7 @@
         <v>35</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -3918,13 +3917,13 @@
     </row>
     <row r="31" spans="1:35" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="5" t="s">
@@ -3938,14 +3937,14 @@
         <v>32</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
         <v>58</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3954,16 +3953,16 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>60</v>
       </c>
       <c r="U31" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="V31" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="V31" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="W31" s="5" t="s">
         <v>120</v>
@@ -3989,13 +3988,13 @@
     </row>
     <row r="32" spans="1:35" ht="15.75" customHeight="1">
       <c r="A32" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>109</v>
@@ -4013,7 +4012,7 @@
         <v>32</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="s">
@@ -4029,16 +4028,16 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T32" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U32" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="V32" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="V32" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>120</v>
@@ -4064,13 +4063,13 @@
     </row>
     <row r="33" spans="1:35" ht="15.75" customHeight="1">
       <c r="A33" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>109</v>
@@ -4092,10 +4091,10 @@
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -4104,16 +4103,16 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T33" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U33" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="V33" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="V33" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="W33" s="5" t="s">
         <v>120</v>
@@ -4139,13 +4138,13 @@
     </row>
     <row r="34" spans="1:35" ht="15.75" customHeight="1">
       <c r="A34" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>30</v>
@@ -4163,11 +4162,11 @@
         <v>32</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>48</v>
@@ -4179,13 +4178,13 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T34" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V34" s="5" t="s">
         <v>35</v>
@@ -4214,13 +4213,13 @@
     </row>
     <row r="35" spans="1:35" ht="15.75" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>30</v>
@@ -4238,11 +4237,11 @@
         <v>32</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>48</v>
@@ -4254,16 +4253,16 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="U35" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="V35" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="W35" s="5" t="s">
         <v>120</v>
@@ -4289,13 +4288,13 @@
     </row>
     <row r="36" spans="1:35" ht="15.75" customHeight="1">
       <c r="A36" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="5" t="s">
@@ -4314,7 +4313,7 @@
         <v>58</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -4323,13 +4322,13 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T36" s="5" t="s">
         <v>60</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V36" s="5" t="s">
         <v>35</v>
@@ -4358,13 +4357,13 @@
     </row>
     <row r="37" spans="1:35" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>30</v>
@@ -4382,7 +4381,7 @@
         <v>32</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="s">
@@ -4398,7 +4397,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T37" s="5" t="s">
         <v>60</v>
@@ -4433,13 +4432,13 @@
     </row>
     <row r="38" spans="1:35" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>30</v>
@@ -4459,7 +4458,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>35</v>
@@ -4471,16 +4470,16 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T38" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U38" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="V38" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>120</v>
@@ -4506,13 +4505,13 @@
     </row>
     <row r="39" spans="1:35" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="5" t="s">
@@ -4530,10 +4529,10 @@
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -4542,13 +4541,13 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T39" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="T39" s="6" t="s">
+      <c r="U39" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="V39" s="5" t="s">
         <v>35</v>
@@ -4577,13 +4576,13 @@
     </row>
     <row r="40" spans="1:35" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>109</v>
@@ -4601,11 +4600,11 @@
         <v>32</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>48</v>
@@ -4617,16 +4616,16 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T40" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U40" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="V40" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>120</v>
@@ -4652,13 +4651,13 @@
     </row>
     <row r="41" spans="1:35" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>30</v>
@@ -4680,10 +4679,10 @@
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -4692,16 +4691,16 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U41" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="T41" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="U41" s="5" t="s">
+      <c r="V41" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="W41" s="5" t="s">
         <v>120</v>
@@ -4710,7 +4709,7 @@
         <v>35</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z41" s="5" t="s">
         <v>51</v>
@@ -4727,13 +4726,13 @@
     </row>
     <row r="42" spans="1:35" ht="15.75" customHeight="1">
       <c r="A42" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>109</v>
@@ -4753,10 +4752,10 @@
       <c r="I42" s="6"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -4765,16 +4764,16 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T42" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U42" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="V42" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="W42" s="5" t="s">
         <v>120</v>
@@ -4800,13 +4799,13 @@
     </row>
     <row r="43" spans="1:35" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>109</v>
@@ -4826,10 +4825,10 @@
       <c r="I43" s="6"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -4838,16 +4837,16 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U43" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="T43" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="U43" s="5" t="s">
+      <c r="V43" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="V43" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="W43" s="5" t="s">
         <v>120</v>
@@ -4856,7 +4855,7 @@
         <v>35</v>
       </c>
       <c r="Y43" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z43" s="5" t="s">
         <v>35</v>
@@ -4873,13 +4872,13 @@
     </row>
     <row r="44" spans="1:35" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
@@ -4895,10 +4894,10 @@
       <c r="I44" s="6"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="L44" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -4907,16 +4906,16 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U44" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="T44" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="U44" s="5" t="s">
+      <c r="V44" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>347</v>
       </c>
       <c r="W44" s="5" t="s">
         <v>120</v>
@@ -4942,13 +4941,13 @@
     </row>
     <row r="45" spans="1:35" ht="15.75" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>30</v>
@@ -4966,14 +4965,14 @@
         <v>32</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4982,16 +4981,16 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="U45" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="T45" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="U45" s="5" t="s">
+      <c r="V45" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="V45" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="W45" s="5" t="s">
         <v>120</v>
@@ -5000,7 +4999,7 @@
         <v>53</v>
       </c>
       <c r="Y45" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z45" s="5" t="s">
         <v>53</v>
@@ -5017,13 +5016,13 @@
     </row>
     <row r="46" spans="1:35" ht="15.75" customHeight="1">
       <c r="A46" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>30</v>
@@ -5046,7 +5045,7 @@
         <v>58</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -5055,16 +5054,16 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T46" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U46" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="V46" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="V46" s="5" t="s">
-        <v>362</v>
       </c>
       <c r="W46" s="5" t="s">
         <v>120</v>
@@ -5090,13 +5089,13 @@
     </row>
     <row r="47" spans="1:35" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
@@ -5114,7 +5113,7 @@
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>48</v>
@@ -5126,16 +5125,16 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T47" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U47" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="V47" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="V47" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="W47" s="5" t="s">
         <v>40</v>
@@ -5161,13 +5160,13 @@
     </row>
     <row r="48" spans="1:35" ht="15.75" customHeight="1">
       <c r="A48" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
@@ -5183,7 +5182,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>48</v>
@@ -5195,16 +5194,16 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T48" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U48" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="V48" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="V48" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="W48" s="5" t="s">
         <v>120</v>
@@ -5230,13 +5229,13 @@
     </row>
     <row r="49" spans="1:35" ht="15.75" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
@@ -5250,14 +5249,14 @@
         <v>32</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5" t="s">
         <v>58</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -5266,13 +5265,13 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T49" s="5" t="s">
         <v>60</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V49" s="4"/>
       <c r="W49" s="5" t="s">
@@ -5299,13 +5298,13 @@
     </row>
     <row r="50" spans="1:35" ht="15.75" customHeight="1">
       <c r="A50" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>30</v>
@@ -5323,14 +5322,14 @@
         <v>32</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -5339,16 +5338,16 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T50" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U50" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="V50" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="V50" s="5" t="s">
-        <v>390</v>
       </c>
       <c r="W50" s="5" t="s">
         <v>120</v>
@@ -5357,7 +5356,7 @@
         <v>35</v>
       </c>
       <c r="Y50" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z50" s="5" t="s">
         <v>53</v>
@@ -5374,13 +5373,13 @@
     </row>
     <row r="51" spans="1:35" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>30</v>
@@ -5414,16 +5413,16 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T51" s="5" t="s">
         <v>60</v>
       </c>
       <c r="U51" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="V51" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="V51" s="5" t="s">
-        <v>396</v>
       </c>
       <c r="W51" s="5" t="s">
         <v>120</v>
@@ -5449,13 +5448,13 @@
     </row>
     <row r="52" spans="1:35" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>109</v>
@@ -5473,14 +5472,14 @@
         <v>32</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="L52" s="5" t="s">
         <v>400</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -5489,16 +5488,16 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T52" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U52" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="V52" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="V52" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="W52" s="5" t="s">
         <v>40</v>
@@ -5524,13 +5523,13 @@
     </row>
     <row r="53" spans="1:35" ht="15.75" customHeight="1">
       <c r="A53" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6" t="s">
@@ -5544,14 +5543,14 @@
         <v>32</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="L53" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -5560,13 +5559,13 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="U53" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="U53" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="5" t="s">
@@ -5576,7 +5575,7 @@
         <v>35</v>
       </c>
       <c r="Y53" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z53" s="5" t="s">
         <v>53</v>
@@ -5593,13 +5592,13 @@
     </row>
     <row r="54" spans="1:35" ht="15.75" customHeight="1">
       <c r="A54" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
@@ -5613,7 +5612,7 @@
         <v>32</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
@@ -5629,16 +5628,16 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T54" s="5" t="s">
         <v>60</v>
       </c>
       <c r="U54" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="V54" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="V54" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="W54" s="5" t="s">
         <v>120</v>
@@ -5664,13 +5663,13 @@
     </row>
     <row r="55" spans="1:35" ht="15.75" customHeight="1">
       <c r="A55" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>109</v>
@@ -5688,14 +5687,14 @@
         <v>32</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5704,16 +5703,16 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T55" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U55" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="V55" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="V55" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="W55" s="5" t="s">
         <v>120</v>
@@ -5722,7 +5721,7 @@
         <v>51</v>
       </c>
       <c r="Y55" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z55" s="5" t="s">
         <v>51</v>
@@ -5739,13 +5738,13 @@
     </row>
     <row r="56" spans="1:35" ht="15.75" customHeight="1">
       <c r="A56" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>427</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>30</v>
@@ -5763,11 +5762,11 @@
         <v>32</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>80</v>
@@ -5779,16 +5778,16 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="U56" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="T56" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="U56" s="5" t="s">
+      <c r="V56" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="V56" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="W56" s="5" t="s">
         <v>120</v>
@@ -5797,7 +5796,7 @@
         <v>42</v>
       </c>
       <c r="Y56" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z56" s="5" t="s">
         <v>42</v>
@@ -5814,13 +5813,13 @@
     </row>
     <row r="57" spans="1:35" ht="15.75" customHeight="1">
       <c r="A57" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>434</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>30</v>
@@ -5838,11 +5837,11 @@
         <v>32</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>48</v>
@@ -5854,16 +5853,16 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T57" s="5" t="s">
         <v>37</v>
       </c>
       <c r="U57" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="V57" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="V57" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="W57" s="5" t="s">
         <v>120</v>
@@ -40608,11 +40607,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -40623,7 +40622,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>22</v>
@@ -40653,30 +40652,30 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>442</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>445</v>
-      </c>
       <c r="C3" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>442</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>443</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -40703,16 +40702,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="C4" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>442</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>443</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
